--- a/A2/A2Q2.xlsx
+++ b/A2/A2Q2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcitz\Desktop\McGill\COMP409\A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3252B2A3-9F21-4CBC-A4DC-B54CA8674D67}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F8D85E-7E60-438B-BB89-436AD1EFF8AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8562" yWindow="3792" windowWidth="17280" windowHeight="8994" xr2:uid="{252B9843-0DC8-4B30-AD92-CF99D1DE9581}"/>
+    <workbookView xWindow="-8070" yWindow="2268" windowWidth="17280" windowHeight="8994" xr2:uid="{252B9843-0DC8-4B30-AD92-CF99D1DE9581}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,16 +231,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>312.13793103448273</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>312.13793103448273</c:v>
+                  <c:v>1.0283018867924529</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>301.73333333333335</c:v>
+                  <c:v>1.2674418604651163</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>366.97297297297291</c:v>
+                  <c:v>1.3625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1444,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94547932-0505-47B8-BDDC-DFCA3209F03D}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1475,72 +1475,72 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>19</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>14</v>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B6">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1549,19 +1549,19 @@
       </c>
       <c r="B7">
         <f>(B2+B3+B4+B5+B6)/5</f>
-        <v>17.399999999999999</v>
+        <v>21.8</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7:E7" si="0">(C2+C3+C4+C5+C6)/5</f>
-        <v>17.399999999999999</v>
+        <v>21.2</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17.2</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>14.8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1569,20 +1569,20 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <f>1/(B7/5431.2)</f>
-        <v>312.13793103448273</v>
+        <f>1/(B7/21.8)</f>
+        <v>1</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:E8" si="1">1/(C7/5431.2)</f>
-        <v>312.13793103448273</v>
+        <f t="shared" ref="C8:E8" si="1">1/(C7/21.8)</f>
+        <v>1.0283018867924529</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>301.73333333333335</v>
+        <v>1.2674418604651163</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>366.97297297297291</v>
+        <v>1.3625</v>
       </c>
     </row>
   </sheetData>
